--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +31,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>задолженность</t>
   </si>
 </sst>
 </file>
@@ -47,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -111,7 +120,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -121,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -129,6 +137,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,337 +462,255 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42994</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43580</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1654</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2">
+        <v>2027</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43302</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>43627</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>1866</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
-        <v>212</v>
-      </c>
-      <c r="E3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
-        <v>954</v>
+      <c r="C3" s="2">
+        <v>2077</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D6" si="0">SUM(C3,-C2)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F5" si="1">D3*E3</f>
+        <v>228.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>228.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>228.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43407</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>1977</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>499.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43580</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2027</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>228.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43627</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2077</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>228.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43656</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="C4" s="2">
         <v>2177</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G4" s="5">
+        <v>449</v>
+      </c>
+      <c r="H4" s="5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43749</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C5" s="2">
         <v>2277</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E5" s="7">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G5" s="5">
+        <v>449</v>
+      </c>
+      <c r="H5" s="5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43787</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C6" s="2">
         <v>2377</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>449</v>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>449</v>
+      </c>
+      <c r="G6" s="5">
+        <v>449</v>
+      </c>
+      <c r="H6" s="5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43824</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2477</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C6)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>449</v>
+      </c>
+      <c r="G7" s="5">
+        <v>449</v>
+      </c>
+      <c r="H7" s="5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43895</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2497</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C7)</f>
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>89.800000000000011</v>
+      </c>
+      <c r="G8" s="5">
+        <v>89.8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <f>SUM(G3:G8)</f>
+        <v>2114.3000000000002</v>
+      </c>
+      <c r="H9" s="5">
+        <f>SUM(H3:H8)</f>
+        <v>2114.3000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43824</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <f>SUM(H9,-G9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>2477</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C9)</f>
-        <v>100</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,21 +680,31 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
+      <c r="A9" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2517</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C8)</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>89.800000000000011</v>
       </c>
       <c r="G9" s="5">
-        <f>SUM(G3:G8)</f>
-        <v>2114.3000000000002</v>
+        <v>89.8</v>
       </c>
       <c r="H9" s="5">
-        <f>SUM(H3:H8)</f>
-        <v>2114.3000000000002</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,13 +712,31 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(G3:G9)</f>
+        <v>2204.1000000000004</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(H3:H9)</f>
+        <v>2204.1000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <f>SUM(H9,-G9)</f>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -448,7 +448,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -708,21 +708,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>44036</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2617</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C9)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>471</v>
       </c>
       <c r="G10" s="5">
-        <f>SUM(G3:G9)</f>
-        <v>2204.1000000000004</v>
+        <v>471</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM(H3:H9)</f>
-        <v>2204.1000000000004</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -730,14 +740,32 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5">
+        <f>SUM(G3:G10)</f>
+        <v>2675.1000000000004</v>
+      </c>
+      <c r="H11" s="5">
+        <f>SUM(H3:H10)</f>
+        <v>2653.1000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <f>SUM(H10,-G10)</f>
-        <v>0</v>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <f>SUM(H11,-G11)</f>
+        <v>-22</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,21 +736,31 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
+      <c r="A11" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2690</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C10)</f>
+        <v>73</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>343.83</v>
       </c>
       <c r="G11" s="5">
-        <f>SUM(G3:G10)</f>
-        <v>2675.1000000000004</v>
+        <v>343.83</v>
       </c>
       <c r="H11" s="5">
-        <f>SUM(H3:H10)</f>
-        <v>2653.1000000000004</v>
+        <v>327.77</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,14 +768,32 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G3:G11)</f>
+        <v>3018.9300000000003</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H3:H11)</f>
+        <v>2980.8700000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <f>SUM(H11,-G11)</f>
-        <v>-22</v>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <f>SUM(H12,-G12)</f>
+        <v>-38.059999999999945</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>449</v>
       </c>
       <c r="G6" s="5">
@@ -641,7 +641,7 @@
         <v>4.49</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G7" s="5">
@@ -669,7 +669,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>89.800000000000011</v>
       </c>
       <c r="G8" s="5">
@@ -697,7 +697,7 @@
         <v>4.49</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>89.800000000000011</v>
       </c>
       <c r="G9" s="5">
@@ -725,7 +725,7 @@
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>471</v>
       </c>
       <c r="G10" s="5">
@@ -753,7 +753,7 @@
         <v>4.71</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>343.83</v>
       </c>
       <c r="G11" s="5">
@@ -764,21 +764,31 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
+      <c r="A12" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C11)</f>
+        <v>110</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12" si="3">D12*E12</f>
+        <v>518.1</v>
       </c>
       <c r="G12" s="5">
-        <f>SUM(G3:G11)</f>
-        <v>3018.9300000000003</v>
+        <v>518.1</v>
       </c>
       <c r="H12" s="5">
-        <f>SUM(H3:H11)</f>
-        <v>2980.8700000000003</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -786,13 +796,31 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5">
+        <f>SUM(G3:G11)</f>
+        <v>3018.9300000000003</v>
+      </c>
+      <c r="H13" s="5">
+        <f>SUM(H3:H11)</f>
+        <v>2980.8700000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <f>SUM(H12,-G12)</f>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <f>SUM(H13,-G13)</f>
         <v>-38.059999999999945</v>
       </c>
     </row>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>2477</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" ref="D7:D12" si="3">SUM(C7,-C6)</f>
         <v>100</v>
       </c>
       <c r="E7" s="7">
@@ -662,7 +662,7 @@
         <v>2497</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E8" s="7">
@@ -690,7 +690,7 @@
         <v>2517</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C8)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E9" s="7">
@@ -718,7 +718,7 @@
         <v>2617</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E10" s="7">
@@ -746,7 +746,7 @@
         <v>2690</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C10)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="E11" s="7">
@@ -771,42 +771,52 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>2800</v>
+        <v>2790</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C11)</f>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12" si="3">D12*E12</f>
-        <v>518.1</v>
+        <f t="shared" ref="F12" si="4">D12*E12</f>
+        <v>471</v>
       </c>
       <c r="G12" s="5">
-        <v>518.1</v>
+        <v>471</v>
       </c>
       <c r="H12" s="5">
         <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
+      <c r="A13" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="5">SUM(C13,-C12)</f>
+        <v>110</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13" si="6">D13*E13</f>
+        <v>518.1</v>
       </c>
       <c r="G13" s="5">
-        <f>SUM(G3:G11)</f>
-        <v>3018.9300000000003</v>
+        <v>471</v>
       </c>
       <c r="H13" s="5">
-        <f>SUM(H3:H11)</f>
-        <v>2980.8700000000003</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,14 +824,32 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(G3:G13)</f>
+        <v>3960.9300000000003</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H3:H13)</f>
+        <v>3938.8700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <f>SUM(H13,-G13)</f>
-        <v>-38.059999999999945</v>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
+        <v>-22.059999999999945</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,28 +813,38 @@
         <v>518.1</v>
       </c>
       <c r="G13" s="5">
-        <v>471</v>
+        <v>518.1</v>
       </c>
       <c r="H13" s="5">
         <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
+      <c r="A14" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2930</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="7">SUM(C14,-C13)</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14" si="8">D14*E14</f>
+        <v>141.30000000000001</v>
       </c>
       <c r="G14" s="5">
-        <f>SUM(G3:G13)</f>
-        <v>3960.9300000000003</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="H14" s="5">
-        <f>SUM(H3:H13)</f>
-        <v>3938.8700000000003</v>
+        <v>141.30000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,14 +852,32 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <f>SUM(G3:G14)</f>
+        <v>4149.33</v>
+      </c>
+      <c r="H15" s="5">
+        <f>SUM(H3:H14)</f>
+        <v>4080.1700000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
-        <v>-22.059999999999945</v>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <f>SUM(H15,-G15)</f>
+        <v>-69.1599999999994</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>задолженность</t>
@@ -451,7 +448,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -848,21 +845,31 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
+      <c r="A15" s="3">
+        <v>44193</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2950</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="9">SUM(C15,-C14)</f>
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15" si="10">D15*E15</f>
+        <v>94.2</v>
       </c>
       <c r="G15" s="5">
-        <f>SUM(G3:G14)</f>
-        <v>4149.33</v>
+        <v>94.2</v>
       </c>
       <c r="H15" s="5">
-        <f>SUM(H3:H14)</f>
-        <v>4080.1700000000005</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,12 +879,12 @@
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
         <f>SUM(H15,-G15)</f>
-        <v>-69.1599999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -445,10 +445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -873,16 +873,72 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2990</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="11">SUM(C16,-C15)</f>
+        <v>40</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16" si="12">D16*E16</f>
+        <v>188.4</v>
+      </c>
+      <c r="G16" s="5">
+        <v>188.4</v>
+      </c>
+      <c r="H16" s="5">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44291</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3030</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="13">SUM(C17,-C16)</f>
+        <v>40</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17" si="14">D17*E17</f>
+        <v>188.4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>188.4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
         <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -445,10 +445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,16 +929,44 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="3">
+        <v>44335</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3090</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="15">SUM(C18,-C17)</f>
+        <v>60</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18" si="16">D18*E18</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="H18" s="5">
+        <v>282.60000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
         <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -445,10 +445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -957,16 +957,44 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
+      <c r="A19" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4050</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="17">SUM(C19,-C18)</f>
+        <v>960</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19" si="18">D19*E19</f>
+        <v>4521.6000000000004</v>
+      </c>
+      <c r="G19" s="5">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="H19" s="5">
+        <v>282.60000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
         <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -445,10 +445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -985,16 +985,44 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="3">
+        <v>44449</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4070</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="19">SUM(C20,-C19)</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20" si="20">D20*E20</f>
+        <v>99.2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>99.2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
         <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/22ee.xlsx
+++ b/sputnik/personal/ee/22ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -79,12 +79,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -137,6 +143,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,540 +501,89 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>43580</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44449</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2027</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+        <v>3170</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C3)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>99.2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>99.2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43627</v>
+        <v>44375</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2077</v>
+        <v>3150</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="0">SUM(C3,-C2)</f>
-        <v>50</v>
+        <f>SUM(C3,-C4)</f>
+        <v>60</v>
       </c>
       <c r="E3" s="7">
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F5" si="1">D3*E3</f>
-        <v>228.5</v>
+        <f t="shared" si="0"/>
+        <v>282.60000000000002</v>
       </c>
       <c r="G3" s="5">
-        <v>228.5</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="H3" s="5">
-        <v>228.5</v>
+        <v>282.60000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43656</v>
+        <v>44335</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2177</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>449</v>
-      </c>
-      <c r="G4" s="5">
-        <v>449</v>
-      </c>
-      <c r="H4" s="5">
-        <v>449</v>
-      </c>
+        <v>3090</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>43749</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2277</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>449</v>
-      </c>
-      <c r="G5" s="5">
-        <v>449</v>
-      </c>
-      <c r="H5" s="5">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43787</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2377</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
-        <v>449</v>
-      </c>
-      <c r="G6" s="5">
-        <v>449</v>
-      </c>
-      <c r="H6" s="5">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>43824</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2477</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D12" si="3">SUM(C7,-C6)</f>
-        <v>100</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>449</v>
-      </c>
-      <c r="G7" s="5">
-        <v>449</v>
-      </c>
-      <c r="H7" s="5">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43895</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2497</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>89.800000000000011</v>
-      </c>
-      <c r="G8" s="5">
-        <v>89.8</v>
-      </c>
-      <c r="H8" s="5">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>43963</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2517</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>89.800000000000011</v>
-      </c>
-      <c r="G9" s="5">
-        <v>89.8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44036</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2617</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>471</v>
-      </c>
-      <c r="G10" s="5">
-        <v>471</v>
-      </c>
-      <c r="H10" s="5">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44068</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2690</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>343.83</v>
-      </c>
-      <c r="G11" s="5">
-        <v>343.83</v>
-      </c>
-      <c r="H11" s="5">
-        <v>327.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44083</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2790</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12" si="4">D12*E12</f>
-        <v>471</v>
-      </c>
-      <c r="G12" s="5">
-        <v>471</v>
-      </c>
-      <c r="H12" s="5">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44123</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2900</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13" si="5">SUM(C13,-C12)</f>
-        <v>110</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" ref="F13" si="6">D13*E13</f>
-        <v>518.1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>518.1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44158</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2930</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14" si="7">SUM(C14,-C13)</f>
-        <v>30</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14" si="8">D14*E14</f>
-        <v>141.30000000000001</v>
-      </c>
-      <c r="G14" s="5">
-        <v>141.30000000000001</v>
-      </c>
-      <c r="H14" s="5">
-        <v>141.30000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44193</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2950</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15" si="9">SUM(C15,-C14)</f>
-        <v>20</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15" si="10">D15*E15</f>
-        <v>94.2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>94.2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44242</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2990</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16" si="11">SUM(C16,-C15)</f>
-        <v>40</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16" si="12">D16*E16</f>
-        <v>188.4</v>
-      </c>
-      <c r="G16" s="5">
-        <v>188.4</v>
-      </c>
-      <c r="H16" s="5">
-        <v>188.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44291</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3030</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17" si="13">SUM(C17,-C16)</f>
-        <v>40</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17" si="14">D17*E17</f>
-        <v>188.4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>188.4</v>
-      </c>
-      <c r="H17" s="5">
-        <v>188.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44335</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3090</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18" si="15">SUM(C18,-C17)</f>
-        <v>60</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18" si="16">D18*E18</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G18" s="5">
-        <v>282.60000000000002</v>
-      </c>
-      <c r="H18" s="5">
-        <v>282.60000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44375</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4050</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19" si="17">SUM(C19,-C18)</f>
-        <v>960</v>
-      </c>
-      <c r="E19" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ref="F19" si="18">D19*E19</f>
-        <v>4521.6000000000004</v>
-      </c>
-      <c r="G19" s="5">
-        <v>282.60000000000002</v>
-      </c>
-      <c r="H19" s="5">
-        <v>282.60000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44449</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4070</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20" si="19">SUM(C20,-C19)</f>
-        <v>20</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20" si="20">D20*E20</f>
-        <v>99.2</v>
-      </c>
-      <c r="G20" s="5">
-        <v>99.2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <f>SUM(H15,-G15)</f>
-        <v>0</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
